--- a/Progress Status.xlsx
+++ b/Progress Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lap Hoang\LAP-CDINVEST\WORK\EUPEN\ITE-Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254ABBBD-35E2-4968-8B67-3B0DF5EBFD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36A67B0-43E7-4858-9658-D2FC828CFE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBFF04BE-9C38-4D5F-86C1-BBC9B29658DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t xml:space="preserve">ITE BACKOFFICE </t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>LOCATIONS</t>
+  </si>
+  <si>
+    <t>Image Upload</t>
+  </si>
+  <si>
+    <t>detail view -&gt; add image</t>
+  </si>
+  <si>
+    <t>for all sizes</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <t>search fields</t>
+  </si>
+  <si>
+    <t>add 1 column for images on overview</t>
   </si>
 </sst>
 </file>
@@ -329,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,6 +432,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A31DC-0F8F-4A96-A03E-E8036466249D}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +906,9 @@
       <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
@@ -872,42 +917,42 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>6</v>
@@ -924,7 +969,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>6</v>
@@ -932,119 +977,138 @@
       <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>21</v>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="1"/>
@@ -1053,85 +1117,141 @@
       <c r="A22" s="24"/>
       <c r="B22" s="26"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B25" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="28"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:A9"/>
+  <mergeCells count="16">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="A3:A10"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
